--- a/studyresults/comparison_results.xlsx
+++ b/studyresults/comparison_results.xlsx
@@ -77,24 +77,6 @@
     <t>Ascidiacea</t>
   </si>
   <si>
-    <t>Lupopsyroides</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/VTO_9026326</t>
-  </si>
-  <si>
-    <t>Gnathostomata</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/VTO_0000008</t>
-  </si>
-  <si>
-    <t>Vertebrata</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/VTO_0000007</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/VTO_9046416</t>
   </si>
   <si>
@@ -123,12 +105,6 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/VTO_9024151</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/VTO_0000006</t>
-  </si>
-  <si>
-    <t>Craniata</t>
   </si>
   <si>
     <t>External genitalia, female</t>
@@ -534,6 +510,30 @@
   </si>
   <si>
     <t>http://purl.bioontology.org/ontology/OMIM/MTHU000063</t>
+  </si>
+  <si>
+    <t>Culmacanthus</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/VTO_9026260</t>
+  </si>
+  <si>
+    <t>Culmacanthidae</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/VTO_9026262</t>
+  </si>
+  <si>
+    <t>Climatiiformes</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/VTO_9011048</t>
+  </si>
+  <si>
+    <t>Archeognathus</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/VTO_9026555</t>
   </si>
 </sst>
 </file>
@@ -543,17 +543,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -725,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,20 +760,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -790,9 +780,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,7 +792,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -822,6 +809,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -830,14 +823,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76:N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,8 +1140,8 @@
         <v>9</v>
       </c>
       <c r="D1" s="39"/>
-      <c r="E1" s="44" t="s">
-        <v>77</v>
+      <c r="E1" s="42" t="s">
+        <v>69</v>
       </c>
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
@@ -1176,51 +1166,51 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="36" t="s">
+      <c r="I2" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="37" t="s">
-        <v>45</v>
+      <c r="N2" s="35" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E3" s="12">
         <v>8</v>
@@ -1234,7 +1224,7 @@
       <c r="H3" s="7">
         <v>0.88888888888899997</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="27">
         <f t="shared" ref="I3:I19" si="0">G3-L3</f>
         <v>3255</v>
       </c>
@@ -1250,19 +1240,19 @@
       <c r="M3" s="7">
         <v>0.88890000000000002</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="36">
         <f t="shared" ref="N3:N20" si="1">(M3 - H3)</f>
         <v>1.1111111000050578E-5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E4" s="12">
         <v>5</v>
@@ -1276,7 +1266,7 @@
       <c r="H4" s="7">
         <v>0.555555555556</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="27">
         <f t="shared" si="0"/>
         <v>8384</v>
       </c>
@@ -1298,13 +1288,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12">
         <v>4</v>
@@ -1318,7 +1308,7 @@
       <c r="H5" s="7">
         <v>0.51798561151099998</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="27">
         <f t="shared" si="0"/>
         <v>78045</v>
       </c>
@@ -1340,13 +1330,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E6" s="14">
         <v>12</v>
@@ -1360,7 +1350,7 @@
       <c r="H6" s="9">
         <v>0.92307692307699996</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="28">
         <f t="shared" si="0"/>
         <v>14551</v>
       </c>
@@ -1382,13 +1372,13 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E7" s="14">
         <v>11</v>
@@ -1402,7 +1392,7 @@
       <c r="H7" s="9">
         <v>0.72701149425300005</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="28">
         <f t="shared" si="0"/>
         <v>54923</v>
       </c>
@@ -1424,13 +1414,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E8" s="14">
         <v>2</v>
@@ -1444,7 +1434,7 @@
       <c r="H8" s="9">
         <v>0.13464040947299999</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="28">
         <f t="shared" si="0"/>
         <v>2279767</v>
       </c>
@@ -1466,13 +1456,13 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E9" s="12">
         <v>5</v>
@@ -1486,7 +1476,7 @@
       <c r="H9" s="7">
         <v>0.81858407079600004</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="27">
         <f t="shared" si="0"/>
         <v>62506</v>
       </c>
@@ -1508,13 +1498,13 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E10" s="12">
         <v>4</v>
@@ -1528,7 +1518,7 @@
       <c r="H10" s="7">
         <v>0.66129032258099996</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="27">
         <f t="shared" si="0"/>
         <v>65600</v>
       </c>
@@ -1550,13 +1540,13 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E11" s="12">
         <v>2</v>
@@ -1570,7 +1560,7 @@
       <c r="H11" s="7">
         <v>0.28032786885200001</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="27">
         <f t="shared" si="0"/>
         <v>339713</v>
       </c>
@@ -1592,13 +1582,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E12" s="14">
         <v>2</v>
@@ -1612,7 +1602,7 @@
       <c r="H12" s="9">
         <v>0.66666666666700003</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="28">
         <f t="shared" si="0"/>
         <v>9424</v>
       </c>
@@ -1634,13 +1624,13 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -1654,7 +1644,7 @@
       <c r="H13" s="9">
         <v>0.36363636363599999</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="28">
         <f t="shared" si="0"/>
         <v>16372</v>
       </c>
@@ -1676,13 +1666,13 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
@@ -1696,7 +1686,7 @@
       <c r="H14" s="9">
         <v>0.4375</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="28">
         <f t="shared" si="0"/>
         <v>23669</v>
       </c>
@@ -1718,13 +1708,13 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E15" s="12">
         <v>4</v>
@@ -1738,7 +1728,7 @@
       <c r="H15" s="7">
         <v>0.8</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="27">
         <f t="shared" si="0"/>
         <v>8370</v>
       </c>
@@ -1760,13 +1750,13 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E16" s="12">
         <v>3</v>
@@ -1780,7 +1770,7 @@
       <c r="H16" s="7">
         <v>0.69767441860500001</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="27">
         <f t="shared" si="0"/>
         <v>20360</v>
       </c>
@@ -1802,13 +1792,13 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E17" s="12">
         <v>2</v>
@@ -1822,7 +1812,7 @@
       <c r="H17" s="7">
         <v>0.40462427745700003</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="27">
         <f t="shared" si="0"/>
         <v>65588</v>
       </c>
@@ -1844,13 +1834,13 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E18" s="14">
         <v>16</v>
@@ -1864,7 +1854,7 @@
       <c r="H18" s="9">
         <v>0.94117647058800002</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="28">
         <f t="shared" si="0"/>
         <v>8085</v>
       </c>
@@ -1886,13 +1876,13 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E19" s="14">
         <v>13</v>
@@ -1906,7 +1896,7 @@
       <c r="H19" s="9">
         <v>0.83571428571399997</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="28">
         <f t="shared" si="0"/>
         <v>23097</v>
       </c>
@@ -1928,13 +1918,13 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E20" s="14">
         <v>4</v>
@@ -1948,7 +1938,7 @@
       <c r="H20" s="9">
         <v>0.25688073394499999</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="28">
         <f t="shared" ref="I20:I38" si="2">G20-L20</f>
         <v>36355</v>
       </c>
@@ -1974,7 +1964,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="31"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -1982,17 +1972,17 @@
       <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="43" t="s">
+      <c r="A22" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E22" s="12">
         <v>4</v>
@@ -2006,7 +1996,7 @@
       <c r="H22" s="7">
         <v>0.8</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="27">
         <f t="shared" si="2"/>
         <v>3821</v>
       </c>
@@ -2028,13 +2018,13 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E23" s="12">
         <v>3</v>
@@ -2048,7 +2038,7 @@
       <c r="H23" s="7">
         <v>0.61764705882399995</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="27">
         <f t="shared" si="2"/>
         <v>21563</v>
       </c>
@@ -2070,13 +2060,13 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -2090,7 +2080,7 @@
       <c r="H24" s="7">
         <v>0.21798875702699999</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="27">
         <f t="shared" si="2"/>
         <v>62973</v>
       </c>
@@ -2112,13 +2102,13 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E25" s="14">
         <v>3</v>
@@ -2132,7 +2122,7 @@
       <c r="H25" s="9">
         <v>0.75</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="28">
         <f t="shared" si="2"/>
         <v>11646</v>
       </c>
@@ -2154,13 +2144,13 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E26" s="14">
         <v>2</v>
@@ -2174,7 +2164,7 @@
       <c r="H26" s="9">
         <v>0.46948356807500002</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="28">
         <f t="shared" si="2"/>
         <v>69292</v>
       </c>
@@ -2196,13 +2186,13 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E27" s="14">
         <v>1</v>
@@ -2216,7 +2206,7 @@
       <c r="H27" s="9">
         <v>0.21566265060199999</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="28">
         <f t="shared" si="2"/>
         <v>327717</v>
       </c>
@@ -2238,13 +2228,13 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E28" s="12">
         <v>2</v>
@@ -2258,7 +2248,7 @@
       <c r="H28" s="7">
         <v>0.66666666666700003</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="27">
         <f t="shared" si="2"/>
         <v>7049</v>
       </c>
@@ -2280,13 +2270,13 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E29" s="12">
         <v>1</v>
@@ -2300,7 +2290,7 @@
       <c r="H29" s="7">
         <v>0.225382932166</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="27">
         <f t="shared" si="2"/>
         <v>447625</v>
       </c>
@@ -2322,13 +2312,13 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E30" s="12">
         <v>1</v>
@@ -2342,7 +2332,7 @@
       <c r="H30" s="7">
         <v>0.444444444444</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="27">
         <f t="shared" si="2"/>
         <v>16655</v>
       </c>
@@ -2364,13 +2354,13 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E31" s="14">
         <v>3</v>
@@ -2384,7 +2374,7 @@
       <c r="H31" s="9">
         <v>0.75</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="28">
         <f t="shared" si="2"/>
         <v>7725</v>
       </c>
@@ -2406,13 +2396,13 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E32" s="14">
         <v>2</v>
@@ -2426,7 +2416,7 @@
       <c r="H32" s="9">
         <v>0.43396226415099998</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="28">
         <f t="shared" si="2"/>
         <v>45584</v>
       </c>
@@ -2448,13 +2438,13 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E33" s="14">
         <v>1</v>
@@ -2468,7 +2458,7 @@
       <c r="H33" s="9">
         <v>0.26190476190500001</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="28">
         <f t="shared" si="2"/>
         <v>104602</v>
       </c>
@@ -2490,13 +2480,13 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E34" s="12">
         <v>3</v>
@@ -2510,7 +2500,7 @@
       <c r="H34" s="7">
         <v>0.75</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="27">
         <f t="shared" si="2"/>
         <v>15315</v>
       </c>
@@ -2532,13 +2522,13 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E35" s="12">
         <v>2</v>
@@ -2552,7 +2542,7 @@
       <c r="H35" s="7">
         <v>0.52307692307700004</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="27">
         <f t="shared" si="2"/>
         <v>51675</v>
       </c>
@@ -2574,13 +2564,13 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E36" s="12">
         <v>1</v>
@@ -2594,7 +2584,7 @@
       <c r="H36" s="7">
         <v>0.196188144781</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="27">
         <f t="shared" si="2"/>
         <v>1496250</v>
       </c>
@@ -2616,13 +2606,13 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E37" s="14">
         <v>2</v>
@@ -2636,7 +2626,7 @@
       <c r="H37" s="9">
         <v>0.66666666666700003</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="28">
         <f t="shared" si="2"/>
         <v>14286</v>
       </c>
@@ -2658,13 +2648,13 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="38"/>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E38" s="14">
         <v>2</v>
@@ -2678,7 +2668,7 @@
       <c r="H38" s="9">
         <v>0.66666666666700003</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="28">
         <f t="shared" si="2"/>
         <v>9424</v>
       </c>
@@ -2700,13 +2690,13 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E39" s="14">
         <v>1</v>
@@ -2720,7 +2710,7 @@
       <c r="H39" s="9">
         <v>0.29813664596299999</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="28">
         <f t="shared" ref="I39" si="5">G39-L39</f>
         <v>75888</v>
       </c>
@@ -2736,7 +2726,7 @@
       <c r="M39" s="9">
         <v>0.29809999999999998</v>
       </c>
-      <c r="N39" s="33">
+      <c r="N39" s="31">
         <f t="shared" si="4"/>
         <v>-3.6645963000014881E-5</v>
       </c>
@@ -2746,7 +2736,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="31"/>
+      <c r="I40" s="29"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
@@ -2754,17 +2744,17 @@
       <c r="N40" s="16"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="43" t="s">
+      <c r="A41" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E41" s="12">
         <v>3</v>
@@ -2778,7 +2768,7 @@
       <c r="H41" s="7">
         <v>0.75</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="27">
         <f t="shared" ref="I41:I51" si="6">G41-L41</f>
         <v>3982</v>
       </c>
@@ -2800,13 +2790,13 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E42" s="12">
         <v>3</v>
@@ -2820,7 +2810,7 @@
       <c r="H42" s="7">
         <v>0.75</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="27">
         <f t="shared" si="6"/>
         <v>5520</v>
       </c>
@@ -2842,13 +2832,13 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E43" s="12">
         <v>3</v>
@@ -2862,7 +2852,7 @@
       <c r="H43" s="7">
         <v>0.75</v>
       </c>
-      <c r="I43" s="29">
+      <c r="I43" s="27">
         <f t="shared" si="6"/>
         <v>10208</v>
       </c>
@@ -2884,13 +2874,13 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="38"/>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E44" s="14">
         <v>2</v>
@@ -2904,7 +2894,7 @@
       <c r="H44" s="9">
         <v>0.53608247422699995</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44" s="32">
         <f t="shared" si="6"/>
         <v>41672</v>
       </c>
@@ -2926,13 +2916,13 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E45" s="14">
         <v>2</v>
@@ -2946,7 +2936,7 @@
       <c r="H45" s="9">
         <v>0.54761904761900004</v>
       </c>
-      <c r="I45" s="30">
+      <c r="I45" s="28">
         <f t="shared" si="6"/>
         <v>36645</v>
       </c>
@@ -2968,13 +2958,13 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="38"/>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E46" s="14">
         <v>2</v>
@@ -2988,7 +2978,7 @@
       <c r="H46" s="9">
         <v>0.66666666666700003</v>
       </c>
-      <c r="I46" s="30">
+      <c r="I46" s="28">
         <f t="shared" si="6"/>
         <v>5950</v>
       </c>
@@ -3010,13 +3000,13 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E47" s="12">
         <v>2</v>
@@ -3030,7 +3020,7 @@
       <c r="H47" s="7">
         <v>0.66666666666700003</v>
       </c>
-      <c r="I47" s="29">
+      <c r="I47" s="27">
         <f t="shared" si="6"/>
         <v>78250</v>
       </c>
@@ -3052,13 +3042,13 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E48" s="12">
         <v>2</v>
@@ -3072,7 +3062,7 @@
       <c r="H48" s="7">
         <v>0.66666666666700003</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I48" s="27">
         <f t="shared" si="6"/>
         <v>128173</v>
       </c>
@@ -3094,13 +3084,13 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E49" s="12">
         <v>2</v>
@@ -3114,7 +3104,7 @@
       <c r="H49" s="7">
         <v>0.66666666666700003</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I49" s="27">
         <f t="shared" si="6"/>
         <v>150857</v>
       </c>
@@ -3136,13 +3126,13 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="38"/>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E50" s="14">
         <v>3</v>
@@ -3156,7 +3146,7 @@
       <c r="H50" s="9">
         <v>0.75</v>
       </c>
-      <c r="I50" s="30">
+      <c r="I50" s="28">
         <f t="shared" si="6"/>
         <v>29469</v>
       </c>
@@ -3178,13 +3168,13 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E51" s="14">
         <v>3</v>
@@ -3198,7 +3188,7 @@
       <c r="H51" s="9">
         <v>0.75</v>
       </c>
-      <c r="I51" s="30">
+      <c r="I51" s="28">
         <f t="shared" si="6"/>
         <v>64576</v>
       </c>
@@ -3220,13 +3210,13 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E52" s="14">
         <v>3</v>
@@ -3240,7 +3230,7 @@
       <c r="H52" s="9">
         <v>0.75</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I52" s="28">
         <f t="shared" ref="I52:I64" si="9">G52-L52</f>
         <v>37839</v>
       </c>
@@ -3266,7 +3256,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
-      <c r="I53" s="31"/>
+      <c r="I53" s="29"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -3274,17 +3264,17 @@
       <c r="N53" s="16"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="43" t="s">
+      <c r="A54" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E54" s="12">
         <v>1</v>
@@ -3298,7 +3288,7 @@
       <c r="H54" s="7">
         <v>0.47163120567400002</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I54" s="27">
         <f t="shared" si="9"/>
         <v>297778</v>
       </c>
@@ -3320,13 +3310,13 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E55" s="12">
         <v>1</v>
@@ -3340,7 +3330,7 @@
       <c r="H55" s="7">
         <v>0.45161290322600001</v>
       </c>
-      <c r="I55" s="29">
+      <c r="I55" s="27">
         <f t="shared" si="9"/>
         <v>77838</v>
       </c>
@@ -3362,13 +3352,13 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E56" s="12">
         <v>1</v>
@@ -3382,7 +3372,7 @@
       <c r="H56" s="7">
         <v>0.43604651162800001</v>
       </c>
-      <c r="I56" s="29">
+      <c r="I56" s="27">
         <f t="shared" si="9"/>
         <v>80640</v>
       </c>
@@ -3404,13 +3394,13 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E57" s="14">
         <v>1</v>
@@ -3424,7 +3414,7 @@
       <c r="H57" s="9">
         <v>0.42727272727299997</v>
       </c>
-      <c r="I57" s="30">
+      <c r="I57" s="28">
         <f t="shared" si="9"/>
         <v>51573</v>
       </c>
@@ -3440,19 +3430,19 @@
       <c r="M57" s="9">
         <v>0.42730000000000001</v>
       </c>
-      <c r="N57" s="33">
+      <c r="N57" s="31">
         <f t="shared" si="8"/>
         <v>2.7272727000038355E-5</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E58" s="14">
         <v>1</v>
@@ -3466,7 +3456,7 @@
       <c r="H58" s="9">
         <v>0.40886699507399998</v>
       </c>
-      <c r="I58" s="30">
+      <c r="I58" s="28">
         <f t="shared" si="9"/>
         <v>73818</v>
       </c>
@@ -3482,19 +3472,19 @@
       <c r="M58" s="9">
         <v>0.40889999999999999</v>
       </c>
-      <c r="N58" s="33">
+      <c r="N58" s="31">
         <f t="shared" si="8"/>
         <v>3.3004926000002044E-5</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E59" s="14">
         <v>1</v>
@@ -3508,7 +3498,7 @@
       <c r="H59" s="9">
         <v>0.44811320754700001</v>
       </c>
-      <c r="I59" s="30">
+      <c r="I59" s="28">
         <f t="shared" si="9"/>
         <v>80246</v>
       </c>
@@ -3524,19 +3514,19 @@
       <c r="M59" s="9">
         <v>0.4481</v>
       </c>
-      <c r="N59" s="33">
+      <c r="N59" s="31">
         <f t="shared" si="8"/>
         <v>-1.3207547000015918E-5</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E60" s="12">
         <v>1</v>
@@ -3550,7 +3540,7 @@
       <c r="H60" s="7">
         <v>0.42689655172399998</v>
       </c>
-      <c r="I60" s="29">
+      <c r="I60" s="27">
         <f t="shared" si="9"/>
         <v>707982</v>
       </c>
@@ -3572,13 +3562,13 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E61" s="12">
         <v>1</v>
@@ -3592,7 +3582,7 @@
       <c r="H61" s="7">
         <v>0.41883116883100002</v>
       </c>
-      <c r="I61" s="29">
+      <c r="I61" s="27">
         <f t="shared" si="9"/>
         <v>198548</v>
       </c>
@@ -3614,13 +3604,13 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E62" s="12">
         <v>1</v>
@@ -3634,7 +3624,7 @@
       <c r="H62" s="7">
         <v>0.48858131487899997</v>
       </c>
-      <c r="I62" s="29">
+      <c r="I62" s="27">
         <f t="shared" si="9"/>
         <v>793732</v>
       </c>
@@ -3656,13 +3646,13 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E63" s="14">
         <v>1</v>
@@ -3676,7 +3666,7 @@
       <c r="H63" s="9">
         <v>0.46483427647499997</v>
       </c>
-      <c r="I63" s="30">
+      <c r="I63" s="28">
         <f t="shared" si="9"/>
         <v>804160</v>
       </c>
@@ -3692,19 +3682,19 @@
       <c r="M63" s="9">
         <v>0.46479999999999999</v>
       </c>
-      <c r="N63" s="33">
+      <c r="N63" s="31">
         <f t="shared" si="8"/>
         <v>-3.4276474999983542E-5</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E64" s="14">
         <v>1</v>
@@ -3718,7 +3708,7 @@
       <c r="H64" s="9">
         <v>0.45098039215699998</v>
       </c>
-      <c r="I64" s="30">
+      <c r="I64" s="28">
         <f t="shared" si="9"/>
         <v>57956</v>
       </c>
@@ -3734,19 +3724,19 @@
       <c r="M64" s="9">
         <v>0.45100000000000001</v>
       </c>
-      <c r="N64" s="33">
+      <c r="N64" s="31">
         <f t="shared" si="8"/>
         <v>1.9607843000035707E-5</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E65" s="14">
         <v>1</v>
@@ -3760,7 +3750,7 @@
       <c r="H65" s="9">
         <v>0.484126984127</v>
       </c>
-      <c r="I65" s="30">
+      <c r="I65" s="28">
         <f t="shared" ref="I65:I77" si="10">G65-L65</f>
         <v>92019</v>
       </c>
@@ -3776,7 +3766,7 @@
       <c r="M65" s="9">
         <v>0.48409999999999997</v>
       </c>
-      <c r="N65" s="33">
+      <c r="N65" s="31">
         <f t="shared" ref="N65:N76" si="11">(M65 - H65)</f>
         <v>-2.6984127000029279E-5</v>
       </c>
@@ -3786,7 +3776,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
-      <c r="I66" s="31"/>
+      <c r="I66" s="29"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
@@ -3794,10 +3784,10 @@
       <c r="N66" s="16"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="43" t="s">
+      <c r="A67" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -3818,7 +3808,7 @@
       <c r="H67" s="7">
         <v>0.83330000000000004</v>
       </c>
-      <c r="I67" s="29">
+      <c r="I67" s="27">
         <f t="shared" si="10"/>
         <v>5327</v>
       </c>
@@ -3840,8 +3830,8 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="3" t="s">
         <v>13</v>
       </c>
@@ -3860,7 +3850,7 @@
       <c r="H68" s="7">
         <v>0.66666666666700003</v>
       </c>
-      <c r="I68" s="29">
+      <c r="I68" s="27">
         <f t="shared" si="10"/>
         <v>70109</v>
       </c>
@@ -3882,8 +3872,8 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="3" t="s">
         <v>16</v>
       </c>
@@ -3902,7 +3892,7 @@
       <c r="H69" s="7">
         <v>0.30459770114899998</v>
       </c>
-      <c r="I69" s="29">
+      <c r="I69" s="27">
         <f t="shared" si="10"/>
         <v>373402</v>
       </c>
@@ -3924,127 +3914,139 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="4" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="E70" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F70" s="8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G70" s="8">
-        <v>2832</v>
+        <v>45544</v>
       </c>
       <c r="H70" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="I70" s="30">
+        <v>0.73584905660400002</v>
+      </c>
+      <c r="I70" s="28">
         <f t="shared" si="10"/>
-        <v>2820</v>
+        <v>45529</v>
       </c>
       <c r="J70" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K70" s="8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="L70" s="8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M70" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="N70" s="22">
+        <v>0.73580000000000001</v>
+      </c>
+      <c r="N70" s="23">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-4.9056604000008441E-5</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="4" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="E71" s="14">
-        <v>3</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="30">
+        <v>7</v>
+      </c>
+      <c r="F71" s="8">
+        <v>1</v>
+      </c>
+      <c r="G71" s="8">
+        <v>4147</v>
+      </c>
+      <c r="H71" s="9">
+        <v>0.77777777777799995</v>
+      </c>
+      <c r="I71" s="28">
         <f t="shared" si="10"/>
-        <v>-10</v>
+        <v>4133</v>
       </c>
       <c r="J71" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K71" s="8">
-        <v>82858</v>
+        <v>1</v>
       </c>
       <c r="L71" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M71" s="9">
-        <v>0.13800000000000001</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="N71" s="23">
         <f t="shared" si="11"/>
-        <v>0.13800000000000001</v>
+        <v>2.2222222000101155E-5</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="4" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="E72" s="14">
-        <v>2</v>
-      </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="30">
+        <v>8</v>
+      </c>
+      <c r="F72" s="8">
+        <v>1</v>
+      </c>
+      <c r="G72" s="8">
+        <v>3626</v>
+      </c>
+      <c r="H72" s="9">
+        <v>0.88888888888899997</v>
+      </c>
+      <c r="I72" s="28">
         <f t="shared" si="10"/>
-        <v>-11</v>
+        <v>3610</v>
       </c>
       <c r="J72" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K72" s="8">
-        <v>83162</v>
+        <v>1</v>
       </c>
       <c r="L72" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M72" s="9">
-        <v>9.2200000000000004E-2</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="N72" s="23">
         <f t="shared" si="11"/>
-        <v>9.2200000000000004E-2</v>
+        <v>1.1111111000050578E-5</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E73" s="12">
         <v>7</v>
@@ -4058,7 +4060,7 @@
       <c r="H73" s="7">
         <v>0.875</v>
       </c>
-      <c r="I73" s="29">
+      <c r="I73" s="27">
         <f t="shared" si="10"/>
         <v>11272</v>
       </c>
@@ -4080,13 +4082,13 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E74" s="12">
         <v>6</v>
@@ -4100,7 +4102,7 @@
       <c r="H74" s="7">
         <v>0.752577319588</v>
       </c>
-      <c r="I74" s="29">
+      <c r="I74" s="27">
         <f t="shared" si="10"/>
         <v>126572</v>
       </c>
@@ -4122,13 +4124,13 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
       <c r="C75" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E75" s="12">
         <v>3</v>
@@ -4142,7 +4144,7 @@
       <c r="H75" s="7">
         <v>0.37691001697799997</v>
       </c>
-      <c r="I75" s="29">
+      <c r="I75" s="27">
         <f t="shared" si="10"/>
         <v>115317</v>
       </c>
@@ -4164,13 +4166,13 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E76" s="14">
         <v>4</v>
@@ -4184,7 +4186,7 @@
       <c r="H76" s="9">
         <v>0.8</v>
       </c>
-      <c r="I76" s="30">
+      <c r="I76" s="28">
         <f t="shared" si="10"/>
         <v>12959</v>
       </c>
@@ -4200,19 +4202,19 @@
       <c r="M76" s="9">
         <v>0.8</v>
       </c>
-      <c r="N76" s="24">
+      <c r="N76" s="23">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E77" s="14">
         <v>3</v>
@@ -4226,7 +4228,7 @@
       <c r="H77" s="9">
         <v>0.51937657961200001</v>
       </c>
-      <c r="I77" s="30">
+      <c r="I77" s="28">
         <f t="shared" si="10"/>
         <v>697445</v>
       </c>
@@ -4242,45 +4244,51 @@
       <c r="M77" s="9">
         <v>0.51939999999999997</v>
       </c>
-      <c r="N77" s="24">
+      <c r="N77" s="23">
         <f>(M77 - H77)</f>
         <v>2.3420387999961712E-5</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
-      </c>
-      <c r="E78" s="25">
-        <v>1</v>
-      </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="32">
+        <v>166</v>
+      </c>
+      <c r="E78" s="24">
+        <v>4</v>
+      </c>
+      <c r="F78" s="25">
+        <v>2</v>
+      </c>
+      <c r="G78" s="25">
+        <v>4487</v>
+      </c>
+      <c r="H78" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="I78" s="30">
         <f>G78-L78</f>
-        <v>-13</v>
-      </c>
-      <c r="J78" s="26">
-        <v>1</v>
-      </c>
-      <c r="K78" s="26">
-        <v>83647</v>
-      </c>
-      <c r="L78" s="26">
-        <v>13</v>
-      </c>
-      <c r="M78" s="27">
-        <v>4.6300000000000001E-2</v>
-      </c>
-      <c r="N78" s="28">
+        <v>4472</v>
+      </c>
+      <c r="J78" s="25">
+        <v>4</v>
+      </c>
+      <c r="K78" s="25">
+        <v>2</v>
+      </c>
+      <c r="L78" s="25">
+        <v>15</v>
+      </c>
+      <c r="M78" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="N78" s="43">
         <f>(M78 - H78)</f>
-        <v>4.6300000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4321,12 +4329,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="B67:B78"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="B54:B65"/>
-    <mergeCell ref="A22:A39"/>
-    <mergeCell ref="B22:B39"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="A41:A52"/>
@@ -4334,6 +4336,12 @@
     <mergeCell ref="B3:B20"/>
     <mergeCell ref="A3:A20"/>
     <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="B67:B78"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="B54:B65"/>
+    <mergeCell ref="A22:A39"/>
+    <mergeCell ref="B22:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
@@ -4373,6 +4381,10 @@
     <hyperlink ref="D26" r:id="rId35"/>
     <hyperlink ref="D61" r:id="rId36"/>
     <hyperlink ref="D8" r:id="rId37" location="CL_0000004"/>
+    <hyperlink ref="D70" r:id="rId38"/>
+    <hyperlink ref="D71" r:id="rId39"/>
+    <hyperlink ref="D72" r:id="rId40"/>
+    <hyperlink ref="D78" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
